--- a/dfs_unique.xlsx
+++ b/dfs_unique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E308"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,7 +461,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Fantastic Tool</t>
+          <t>Wonder App</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Power Solution</t>
+          <t>Awesome Hub</t>
         </is>
       </c>
     </row>
@@ -511,7 +511,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Sleek App</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Power Space</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Cool App</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Wonder Tool</t>
         </is>
       </c>
     </row>
@@ -611,7 +611,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sleek Tool</t>
+          <t>Smart Matrix</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Power Solution</t>
+          <t>Awesome Space</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Power Phase</t>
+          <t>Awesome Hub</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -726,7 +726,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Innovative Platform</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Creative Platform</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Awesome Hub</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Wonder Solution</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Cool Space</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Awesome App</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Smart Tool</t>
+          <t>Cool Matrix</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Innovative Matrix</t>
+          <t>Sleek Phase</t>
         </is>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1051,7 +1051,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Creative Phase</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Fun Platform</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Sleek Phase</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1151,7 +1151,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Power Solution</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Power Platform</t>
+          <t>Smart Hub</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Power Phase</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Cool Space</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Cool App</t>
         </is>
       </c>
     </row>
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Fun Phase</t>
         </is>
       </c>
     </row>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Innovative Matrix</t>
+          <t>Dynamic Solution</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Smart App</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Power Matrix</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1451,7 +1451,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Power Hub</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Wonder Matrix</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Awesome Platform</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Smart Matrix</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Sleek Solution</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1561,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Awesome Space</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Dynamic Tool</t>
+          <t>Sleek App</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Power Space</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Fun Hub</t>
+          <t>Dynamic App</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Creative Phase</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Wonder Solution</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Fun Hub</t>
+          <t>Power Phase</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Innovative Space</t>
         </is>
       </c>
     </row>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Cool App</t>
         </is>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Innovative Matrix</t>
         </is>
       </c>
     </row>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Power Phase</t>
+          <t>Dynamic Solution</t>
         </is>
       </c>
     </row>
@@ -1961,7 +1961,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Wonder App</t>
         </is>
       </c>
     </row>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Power Solution</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Wonder Platform</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Fun Solution</t>
+          <t>Smart Hub</t>
         </is>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Power Space</t>
+          <t>Cool Platform</t>
         </is>
       </c>
     </row>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2126,7 +2126,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Dynamic Tool</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Awesome Hub</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Dynamic Space</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2276,7 +2276,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Awesome Tool</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Fantastic Tool</t>
+          <t>Wonder Solution</t>
         </is>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Dynamic Hub</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Fun Solution</t>
+          <t>Fun App</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2386,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Creative App</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Fantastic Phase</t>
         </is>
       </c>
     </row>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Power Solution</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2501,7 +2501,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Awesome Tool</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Dynamic Solution</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2551,7 +2551,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Fantastic Space</t>
+          <t>Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2586,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2601,7 +2601,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2626,7 +2626,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cool Solution</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Creative Platform</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Dynamic Space</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Awesome Platform</t>
         </is>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2726,7 +2726,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Innovative Solution</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Power Space</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Dynamic Tool</t>
+          <t>Cool Phase</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Innovative Platform</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Awesome Phase</t>
         </is>
       </c>
     </row>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2851,7 +2851,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Smart Tool</t>
+          <t>Dynamic Solution</t>
         </is>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2901,7 +2901,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Creative Matrix</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Fun Phase</t>
         </is>
       </c>
     </row>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Awesome Solution</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Wonder Space</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Wonder Tool</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Fantastic Tool</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Wonder App</t>
         </is>
       </c>
     </row>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Innovative Solution</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3151,7 +3151,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Dynamic Matrix</t>
         </is>
       </c>
     </row>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3186,7 +3186,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Fun Tool</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Power Space</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3251,7 +3251,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Creative Platform</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Innovative Space</t>
         </is>
       </c>
     </row>
@@ -3311,7 +3311,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3326,7 +3326,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Fun App</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3361,7 +3361,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Sleek Hub</t>
         </is>
       </c>
     </row>
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Awesome Tool</t>
+          <t>Wonder App</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3426,7 +3426,7 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Power Phase</t>
         </is>
       </c>
     </row>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Cool Tool</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -3546,12 +3546,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Creative Matrix</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Awesome App</t>
         </is>
       </c>
     </row>
@@ -3586,22 +3586,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Dynamic Tool</t>
+          <t>Sleek Platform</t>
         </is>
       </c>
     </row>
@@ -3611,7 +3611,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3621,12 +3621,12 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Awesome Solution</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Fun Solution</t>
         </is>
       </c>
     </row>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3671,12 +3671,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Cool Solution</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -3686,7 +3686,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3696,12 +3696,12 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Smart Solution</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3721,12 +3721,12 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3746,12 +3746,12 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Awesome Phase</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -3786,22 +3786,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Fun Tool</t>
         </is>
       </c>
     </row>
@@ -3811,22 +3811,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Awesome Space</t>
         </is>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3846,12 +3846,12 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Creative Hub</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sleek Tool</t>
+          <t>Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -3896,12 +3896,12 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Cool Hub</t>
         </is>
       </c>
     </row>
@@ -3911,7 +3911,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Cool Tool</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3946,12 +3946,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Power Phase</t>
+          <t>Innovative Tool</t>
         </is>
       </c>
     </row>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3971,12 +3971,12 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Creative Solution</t>
         </is>
       </c>
     </row>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -3996,12 +3996,12 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Awesome App</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -4011,22 +4011,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -4036,22 +4036,22 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Smart Platform</t>
         </is>
       </c>
     </row>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4071,12 +4071,12 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4086,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4096,12 +4096,12 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Cool App</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4171,12 +4171,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4196,12 +4196,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Fun Solution</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -4211,22 +4211,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Wonder Solution</t>
         </is>
       </c>
     </row>
@@ -4236,22 +4236,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Innovative Matrix</t>
+          <t>Dynamic Matrix</t>
         </is>
       </c>
     </row>
@@ -4261,7 +4261,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Creative Phase</t>
         </is>
       </c>
     </row>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Innovative Hub</t>
         </is>
       </c>
     </row>
@@ -4311,7 +4311,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -4336,7 +4336,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4346,12 +4346,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Creative App</t>
+          <t>Sleek Phase</t>
         </is>
       </c>
     </row>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4371,12 +4371,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Power Solution</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Smart Matrix</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -4411,22 +4411,22 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Fantastic Tool</t>
         </is>
       </c>
     </row>
@@ -4436,22 +4436,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -4461,22 +4461,22 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Dynamic Solution</t>
+          <t>Power Space</t>
         </is>
       </c>
     </row>
@@ -4486,7 +4486,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4496,12 +4496,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Innovative Matrix</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -4511,7 +4511,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4521,12 +4521,12 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4546,12 +4546,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4571,12 +4571,12 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Awesome Phase</t>
+          <t>Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -4586,22 +4586,22 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -4611,22 +4611,22 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Wonder Hub</t>
         </is>
       </c>
     </row>
@@ -4636,22 +4636,22 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Innovative Tool</t>
         </is>
       </c>
     </row>
@@ -4686,22 +4686,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Power Phase</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4721,12 +4721,12 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Power Hub</t>
         </is>
       </c>
     </row>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4746,12 +4746,12 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Creative Solution</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4771,12 +4771,12 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Awesome App</t>
+          <t>Cool Phase</t>
         </is>
       </c>
     </row>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4796,12 +4796,12 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cool Solution</t>
+          <t>Cool Space</t>
         </is>
       </c>
     </row>
@@ -4811,22 +4811,22 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Fantastic App</t>
         </is>
       </c>
     </row>
@@ -4836,22 +4836,22 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -4861,22 +4861,22 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -4886,22 +4886,22 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -4911,22 +4911,22 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Creative Solution</t>
         </is>
       </c>
     </row>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -4946,12 +4946,12 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Power Space</t>
+          <t>Cool App</t>
         </is>
       </c>
     </row>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -4971,12 +4971,12 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Wonder Tool</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -4996,12 +4996,12 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Dynamic Space</t>
+          <t>Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -5011,22 +5011,22 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -5036,22 +5036,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -5061,22 +5061,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Creative App</t>
+          <t>Sleek Phase</t>
         </is>
       </c>
     </row>
@@ -5086,22 +5086,22 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -5111,22 +5111,22 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Fantastic App</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Dynamic Space</t>
         </is>
       </c>
     </row>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5171,12 +5171,12 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Sleek App</t>
         </is>
       </c>
     </row>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5221,12 +5221,12 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Dynamic Tool</t>
+          <t>Fantastic Phase</t>
         </is>
       </c>
     </row>
@@ -5236,22 +5236,22 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Fun Solution</t>
         </is>
       </c>
     </row>
@@ -5261,22 +5261,22 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Dynamic Matrix</t>
         </is>
       </c>
     </row>
@@ -5286,22 +5286,22 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -5311,22 +5311,22 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5346,12 +5346,12 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Fantastic Space</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5371,12 +5371,12 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Smart Solution</t>
         </is>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5396,12 +5396,12 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Fun Phase</t>
         </is>
       </c>
     </row>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5421,12 +5421,12 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Fun Solution</t>
         </is>
       </c>
     </row>
@@ -5436,22 +5436,22 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Power Platform</t>
+          <t>Smart Hub</t>
         </is>
       </c>
     </row>
@@ -5461,22 +5461,22 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Fantastic Matrix</t>
+          <t>Innovative Matrix</t>
         </is>
       </c>
     </row>
@@ -5486,22 +5486,22 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Dynamic Solution</t>
+          <t>Creative Hub</t>
         </is>
       </c>
     </row>
@@ -5511,22 +5511,22 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Smart Matrix</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -5536,22 +5536,22 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Fantastic Space</t>
+          <t>Dynamic Tool</t>
         </is>
       </c>
     </row>
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Awesome Phase</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5596,12 +5596,12 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Dynamic Solution</t>
         </is>
       </c>
     </row>
@@ -5611,7 +5611,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5621,12 +5621,12 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -5636,7 +5636,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5646,12 +5646,12 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -5661,22 +5661,22 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Cool Platform</t>
         </is>
       </c>
     </row>
@@ -5686,22 +5686,22 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Creative App</t>
         </is>
       </c>
     </row>
@@ -5711,22 +5711,22 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -5736,22 +5736,22 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Fun Platform</t>
         </is>
       </c>
     </row>
@@ -5761,22 +5761,22 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Wonder Space</t>
         </is>
       </c>
     </row>
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Smart Space</t>
+          <t>Sleek Hub</t>
         </is>
       </c>
     </row>
@@ -5886,22 +5886,22 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Fantastic Matrix</t>
+          <t>Fun Phase</t>
         </is>
       </c>
     </row>
@@ -5911,22 +5911,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Power Hub</t>
         </is>
       </c>
     </row>
@@ -5936,22 +5936,22 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Fantastic Platform</t>
+          <t>Creative Space</t>
         </is>
       </c>
     </row>
@@ -5961,22 +5961,22 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Cool Solution</t>
         </is>
       </c>
     </row>
@@ -5986,22 +5986,22 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Creative Phase</t>
+          <t>Awesome Phase</t>
         </is>
       </c>
     </row>
@@ -6011,7 +6011,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6021,12 +6021,12 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Innovative Matrix</t>
+          <t>Creative Platform</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6061,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6071,12 +6071,12 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -6086,22 +6086,22 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -6111,22 +6111,22 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Innovative Phase</t>
+          <t>Fun Platform</t>
         </is>
       </c>
     </row>
@@ -6136,22 +6136,22 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Power Platform</t>
+          <t>Awesome Space</t>
         </is>
       </c>
     </row>
@@ -6161,22 +6161,22 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Fantastic App</t>
         </is>
       </c>
     </row>
@@ -6186,22 +6186,22 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Cool Solution</t>
+          <t>Power Platform</t>
         </is>
       </c>
     </row>
@@ -6211,22 +6211,22 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Fantastic Space</t>
+          <t>Wonder Tool</t>
         </is>
       </c>
     </row>
@@ -6236,7 +6236,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6246,12 +6246,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Fantastic Platform</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6271,12 +6271,12 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Innovative Hub</t>
         </is>
       </c>
     </row>
@@ -6286,22 +6286,22 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Smart Matrix</t>
         </is>
       </c>
     </row>
@@ -6311,22 +6311,22 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Dynamic Space</t>
+          <t>Fantastic Phase</t>
         </is>
       </c>
     </row>
@@ -6336,22 +6336,22 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Awesome App</t>
+          <t>Power Platform</t>
         </is>
       </c>
     </row>
@@ -6361,22 +6361,22 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Power Matrix</t>
         </is>
       </c>
     </row>
@@ -6386,22 +6386,22 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Dynamic Platform</t>
         </is>
       </c>
     </row>
@@ -6411,22 +6411,22 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -6436,22 +6436,22 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Creative Hub</t>
+          <t>Creative Matrix</t>
         </is>
       </c>
     </row>
@@ -6461,7 +6461,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6471,12 +6471,12 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -6486,22 +6486,22 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Fantastic Space</t>
+          <t>Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -6511,12 +6511,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -6526,7 +6526,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Fun Platform</t>
+          <t>Wonder Space</t>
         </is>
       </c>
     </row>
@@ -6536,22 +6536,22 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Dynamic Hub</t>
         </is>
       </c>
     </row>
@@ -6561,22 +6561,22 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Wonder Tool</t>
         </is>
       </c>
     </row>
@@ -6586,22 +6586,22 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Creative Space</t>
+          <t>Sleek Hub</t>
         </is>
       </c>
     </row>
@@ -6611,22 +6611,22 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Dynamic App</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -6636,22 +6636,22 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Cool Hub</t>
         </is>
       </c>
     </row>
@@ -6661,7 +6661,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6671,12 +6671,12 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -6686,22 +6686,22 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Creative App</t>
         </is>
       </c>
     </row>
@@ -6711,22 +6711,22 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -6736,22 +6736,22 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Fun Space</t>
         </is>
       </c>
     </row>
@@ -6761,22 +6761,22 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Awesome Matrix</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Fun Solution</t>
+          <t>Fantastic Hub</t>
         </is>
       </c>
     </row>
@@ -6811,12 +6811,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -6836,12 +6836,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -6861,12 +6861,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Fun Hub</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -6886,12 +6886,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -6901,7 +6901,7 @@
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Creative Platform</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Dynamic App</t>
         </is>
       </c>
     </row>
@@ -6936,12 +6936,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -6951,7 +6951,7 @@
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Cool Platform</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Smart Solution</t>
         </is>
       </c>
     </row>
@@ -6986,12 +6986,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sleek Tool</t>
+          <t>Wonder Phase</t>
         </is>
       </c>
     </row>
@@ -7011,22 +7011,22 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Power Phase</t>
         </is>
       </c>
     </row>
@@ -7036,22 +7036,22 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Fun Matrix</t>
         </is>
       </c>
     </row>
@@ -7061,22 +7061,22 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Wonder Solution</t>
         </is>
       </c>
     </row>
@@ -7086,17 +7086,17 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
@@ -7111,22 +7111,22 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Cool Space</t>
         </is>
       </c>
     </row>
@@ -7136,22 +7136,22 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Innovative Platform</t>
+          <t>Sleek Hub</t>
         </is>
       </c>
     </row>
@@ -7161,22 +7161,22 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Power Phase</t>
+          <t>Wonder Hub</t>
         </is>
       </c>
     </row>
@@ -7186,22 +7186,22 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Fun Hub</t>
         </is>
       </c>
     </row>
@@ -7211,22 +7211,22 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Innovative Tool</t>
         </is>
       </c>
     </row>
@@ -7236,22 +7236,22 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Dynamic Hub</t>
+          <t>Innovative Hub</t>
         </is>
       </c>
     </row>
@@ -7261,22 +7261,22 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Fantastic Tool</t>
+          <t>Innovative Solution</t>
         </is>
       </c>
     </row>
@@ -7286,22 +7286,22 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -7311,22 +7311,22 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Power Matrix</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -7336,22 +7336,22 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Fantastic Matrix</t>
+          <t>Power Phase</t>
         </is>
       </c>
     </row>
@@ -7361,22 +7361,22 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Sleek App</t>
+          <t>Wonder Space</t>
         </is>
       </c>
     </row>
@@ -7386,22 +7386,22 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Fantastic Solution</t>
         </is>
       </c>
     </row>
@@ -7411,22 +7411,22 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Power Space</t>
         </is>
       </c>
     </row>
@@ -7436,22 +7436,22 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -7461,22 +7461,22 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Smart App</t>
+          <t>Creative Hub</t>
         </is>
       </c>
     </row>
@@ -7486,22 +7486,22 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Awesome Space</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -7511,22 +7511,22 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Run</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Creative Matrix</t>
+          <t>Smart Hub</t>
         </is>
       </c>
     </row>
@@ -7536,22 +7536,22 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Cool Solution</t>
+          <t>Innovative App</t>
         </is>
       </c>
     </row>
@@ -7561,22 +7561,22 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -7586,22 +7586,22 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Cool App</t>
+          <t>Sleek App</t>
         </is>
       </c>
     </row>
@@ -7611,22 +7611,22 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Fantastic Phase</t>
+          <t>Awesome App</t>
         </is>
       </c>
     </row>
@@ -7636,22 +7636,22 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Power Tool</t>
+          <t>Cool Tool</t>
         </is>
       </c>
     </row>
@@ -7661,22 +7661,22 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Fantastic Matrix</t>
+          <t>Wonder App</t>
         </is>
       </c>
     </row>
@@ -7686,22 +7686,22 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Creative Tool</t>
+          <t>Fantastic Space</t>
         </is>
       </c>
     </row>
@@ -7711,22 +7711,22 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Intern</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Creative Solution</t>
+          <t>Cool Solution</t>
         </is>
       </c>
     </row>
@@ -7736,22 +7736,22 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Fun Hub</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -7761,22 +7761,22 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Analytics</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intermediate</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Fun Matrix</t>
+          <t>Dynamic Phase</t>
         </is>
       </c>
     </row>
@@ -7786,22 +7786,22 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Awesome App</t>
         </is>
       </c>
     </row>
@@ -7811,22 +7811,22 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
@@ -7836,22 +7836,22 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Fantastic Matrix</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -7861,22 +7861,22 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>QA Developer</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Awesome App</t>
+          <t>Power App</t>
         </is>
       </c>
     </row>
@@ -7886,22 +7886,22 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>Data Scientist</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Smart Solution</t>
         </is>
       </c>
     </row>
@@ -7911,22 +7911,22 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Business Analyst</t>
+          <t>QA Developer</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Power Platform</t>
+          <t>Power Tool</t>
         </is>
       </c>
     </row>
@@ -7936,22 +7936,22 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Product Manager</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Smart Hub</t>
+          <t>Innovative Phase</t>
         </is>
       </c>
     </row>
@@ -7961,22 +7961,22 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Intern</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>App Developer</t>
+          <t>Business Analyst</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Wonder Phase</t>
+          <t>Innovative Tool</t>
         </is>
       </c>
     </row>
@@ -7986,22 +7986,22 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>UX Designer</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Smart Platform</t>
+          <t>Sleek Tool</t>
         </is>
       </c>
     </row>
@@ -8011,22 +8011,22 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Data Engineer</t>
+          <t>App Developer</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Fun Tool</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -8036,22 +8036,22 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>ML Engineer</t>
+          <t>UX Designer</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Awesome Platform</t>
+          <t>Cool Matrix</t>
         </is>
       </c>
     </row>
@@ -8061,22 +8061,22 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Data Scientist</t>
+          <t>Data Engineer</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Sleek Hub</t>
+          <t>Smart Tool</t>
         </is>
       </c>
     </row>
@@ -8086,22 +8086,22 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Product Manager</t>
+          <t>ML Engineer</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Awesome App</t>
+          <t>Smart Space</t>
         </is>
       </c>
     </row>
@@ -8111,22 +8111,272 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Build</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Intermediate</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
+          <t>QA Developer</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Fantastic Phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>Innovative Solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Junior</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
           <t>Business Analyst</t>
         </is>
       </c>
-      <c r="E308" t="inlineStr">
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Cool Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>App Developer</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Dynamic Tool</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>UX Designer</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Power Matrix</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>Data Engineer</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Innovative Phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>ML Engineer</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Fun Solution</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
         <is>
           <t>Smart Platform</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>QA Developer</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Fun Phase</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>Product Manager</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Cool Space</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Intermediate</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>Business Analyst</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Smart Phase</t>
         </is>
       </c>
     </row>
